--- a/database/industries/shishe/kehamda/cashflow/quarterly.xlsx
+++ b/database/industries/shishe/kehamda/cashflow/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AD25B5-FD96-4EC4-8119-0DC8FD1A243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4537E5-0D58-4A64-8C34-0A5DDA36D11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کهمدا-شیشه‌ همدان‌</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل دوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل اول منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-07-12 (8)</t>
-  </si>
-  <si>
-    <t>1400-07-30 (2)</t>
-  </si>
-  <si>
-    <t>1400-11-27 (4)</t>
-  </si>
-  <si>
-    <t>1401-01-30 (2)</t>
-  </si>
-  <si>
-    <t>1401-07-20 (9)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (2)</t>
-  </si>
-  <si>
-    <t>1400-11-27 (2)</t>
+    <t>1401-10-29 (3)</t>
   </si>
   <si>
     <t>1401-01-30</t>
   </si>
   <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-10-29 (5)</t>
   </si>
   <si>
     <t>1401-07-30</t>
+  </si>
+  <si>
+    <t>1401-10-29</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -722,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+  <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,15 +700,12 @@
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="11" width="29" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -746,13 +713,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,13 +724,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -778,13 +735,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -792,13 +744,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -808,13 +755,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -824,13 +766,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -838,13 +775,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -864,59 +796,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -924,15 +826,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -940,123 +837,73 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>460983</v>
+        <v>752720</v>
       </c>
       <c r="E12" s="15">
-        <v>467994</v>
+        <v>621660</v>
       </c>
       <c r="F12" s="15">
-        <v>866371</v>
+        <v>550317</v>
       </c>
       <c r="G12" s="15">
-        <v>734983</v>
+        <v>-101277</v>
       </c>
       <c r="H12" s="15">
-        <v>776148</v>
-      </c>
-      <c r="I12" s="15">
-        <v>42853</v>
-      </c>
-      <c r="J12" s="15">
-        <v>752720</v>
-      </c>
-      <c r="K12" s="15">
-        <v>621660</v>
-      </c>
-      <c r="L12" s="15">
-        <v>550317</v>
-      </c>
-      <c r="M12" s="15">
-        <v>-101277</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>683970</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>0</v>
+        <v>-133842</v>
       </c>
       <c r="E13" s="11">
-        <v>-7710</v>
+        <v>-125457</v>
       </c>
       <c r="F13" s="11">
-        <v>-53740</v>
+        <v>-139576</v>
       </c>
       <c r="G13" s="11">
-        <v>-57000</v>
+        <v>-67500</v>
       </c>
       <c r="H13" s="11">
-        <v>-57000</v>
-      </c>
-      <c r="I13" s="11">
-        <v>-57000</v>
-      </c>
-      <c r="J13" s="11">
-        <v>-133842</v>
-      </c>
-      <c r="K13" s="11">
-        <v>-125457</v>
-      </c>
-      <c r="L13" s="11">
-        <v>-139576</v>
-      </c>
-      <c r="M13" s="11">
-        <v>-67500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-22500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>455854</v>
+        <v>618878</v>
       </c>
       <c r="E14" s="17">
-        <v>460284</v>
+        <v>496203</v>
       </c>
       <c r="F14" s="17">
-        <v>812631</v>
+        <v>410741</v>
       </c>
       <c r="G14" s="17">
-        <v>677983</v>
+        <v>-168777</v>
       </c>
       <c r="H14" s="17">
-        <v>719148</v>
-      </c>
-      <c r="I14" s="17">
-        <v>-14147</v>
-      </c>
-      <c r="J14" s="17">
-        <v>618878</v>
-      </c>
-      <c r="K14" s="17">
-        <v>496203</v>
-      </c>
-      <c r="L14" s="17">
-        <v>410741</v>
-      </c>
-      <c r="M14" s="17">
-        <v>-168777</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>661470</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1064,15 +911,10 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
@@ -1088,63 +930,33 @@
         <v>0</v>
       </c>
       <c r="H16" s="15">
-        <v>1389</v>
-      </c>
-      <c r="I16" s="15">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <v>0</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1675040</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-191481</v>
+        <v>-538057</v>
       </c>
       <c r="E17" s="11">
-        <v>-106195</v>
+        <v>-359507</v>
       </c>
       <c r="F17" s="11">
-        <v>-526432</v>
+        <v>238862</v>
       </c>
       <c r="G17" s="11">
-        <v>-408492</v>
+        <v>-129762</v>
       </c>
       <c r="H17" s="11">
-        <v>-1447556</v>
-      </c>
-      <c r="I17" s="11">
-        <v>-115013</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-538057</v>
-      </c>
-      <c r="K17" s="11">
-        <v>-359507</v>
-      </c>
-      <c r="L17" s="11">
-        <v>238862</v>
-      </c>
-      <c r="M17" s="11">
-        <v>-129762</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-239691</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -1154,33 +966,18 @@
         <v>0</v>
       </c>
       <c r="F18" s="15">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="G18" s="15">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="H18" s="15">
         <v>0</v>
       </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1198,97 +995,52 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>0</v>
+        <v>-53107</v>
       </c>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>-846</v>
       </c>
       <c r="F20" s="15">
-        <v>-6354</v>
+        <v>-224</v>
       </c>
       <c r="G20" s="15">
-        <v>-17349</v>
+        <v>-380</v>
       </c>
       <c r="H20" s="15">
-        <v>-2341</v>
-      </c>
-      <c r="I20" s="15">
-        <v>-1613</v>
-      </c>
-      <c r="J20" s="15">
-        <v>-53107</v>
-      </c>
-      <c r="K20" s="15">
-        <v>-846</v>
-      </c>
-      <c r="L20" s="15">
-        <v>-224</v>
-      </c>
-      <c r="M20" s="15">
-        <v>-380</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
-        <v>-700</v>
+        <v>-68441</v>
       </c>
       <c r="E21" s="11">
-        <v>-1000</v>
+        <v>-15054</v>
       </c>
       <c r="F21" s="11">
-        <v>-27935</v>
+        <v>-21061</v>
       </c>
       <c r="G21" s="11">
-        <v>-21545</v>
+        <v>-6650</v>
       </c>
       <c r="H21" s="11">
-        <v>-27216</v>
-      </c>
-      <c r="I21" s="11">
-        <v>-33932</v>
-      </c>
-      <c r="J21" s="11">
-        <v>-68441</v>
-      </c>
-      <c r="K21" s="11">
-        <v>-15054</v>
-      </c>
-      <c r="L21" s="11">
-        <v>-21061</v>
-      </c>
-      <c r="M21" s="11">
-        <v>-6650</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-26318</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1306,25 +1058,10 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-      <c r="I22" s="15">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15">
-        <v>0</v>
-      </c>
-      <c r="K22" s="15">
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1342,133 +1079,73 @@
       <c r="H23" s="11">
         <v>0</v>
       </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>-15700</v>
+        <v>-10000</v>
       </c>
       <c r="E24" s="15">
-        <v>-386218</v>
+        <v>-30813</v>
       </c>
       <c r="F24" s="15">
-        <v>-122650</v>
+        <v>5</v>
       </c>
       <c r="G24" s="15">
-        <v>-122775</v>
+        <v>0</v>
       </c>
       <c r="H24" s="15">
-        <v>-122614</v>
-      </c>
-      <c r="I24" s="15">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15">
-        <v>-10000</v>
-      </c>
-      <c r="K24" s="15">
-        <v>-30813</v>
-      </c>
-      <c r="L24" s="15">
-        <v>5</v>
-      </c>
-      <c r="M24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-15070</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>0</v>
+        <v>82558</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>111433</v>
       </c>
       <c r="F25" s="11">
-        <v>30000</v>
+        <v>-1</v>
       </c>
       <c r="G25" s="11">
-        <v>7398</v>
+        <v>54228</v>
       </c>
       <c r="H25" s="11">
-        <v>58687</v>
-      </c>
-      <c r="I25" s="11">
-        <v>131518</v>
-      </c>
-      <c r="J25" s="11">
-        <v>82558</v>
-      </c>
-      <c r="K25" s="11">
-        <v>111433</v>
-      </c>
-      <c r="L25" s="11">
-        <v>-1</v>
-      </c>
-      <c r="M25" s="11">
-        <v>54228</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>-255276</v>
+        <v>-72716</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
       </c>
       <c r="F26" s="15">
-        <v>-58850</v>
+        <v>72716</v>
       </c>
       <c r="G26" s="15">
-        <v>-243555</v>
+        <v>0</v>
       </c>
       <c r="H26" s="15">
-        <v>3594</v>
-      </c>
-      <c r="I26" s="15">
-        <v>0</v>
-      </c>
-      <c r="J26" s="15">
-        <v>-72716</v>
-      </c>
-      <c r="K26" s="15">
-        <v>0</v>
-      </c>
-      <c r="L26" s="15">
-        <v>72716</v>
-      </c>
-      <c r="M26" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-692890</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1486,25 +1163,10 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1522,25 +1184,10 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-      <c r="I28" s="15">
-        <v>0</v>
-      </c>
-      <c r="J28" s="15">
-        <v>0</v>
-      </c>
-      <c r="K28" s="15">
-        <v>0</v>
-      </c>
-      <c r="L28" s="15">
-        <v>0</v>
-      </c>
-      <c r="M28" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1558,169 +1205,94 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>0</v>
+        <v>6745</v>
       </c>
       <c r="E30" s="15">
-        <v>348</v>
+        <v>42205</v>
       </c>
       <c r="F30" s="15">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="G30" s="15">
-        <v>427</v>
+        <v>11125</v>
       </c>
       <c r="H30" s="15">
-        <v>74</v>
-      </c>
-      <c r="I30" s="15">
-        <v>0</v>
-      </c>
-      <c r="J30" s="15">
-        <v>6745</v>
-      </c>
-      <c r="K30" s="15">
-        <v>42205</v>
-      </c>
-      <c r="L30" s="15">
-        <v>1970</v>
-      </c>
-      <c r="M30" s="15">
-        <v>11125</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>49546</v>
+        <v>72760</v>
       </c>
       <c r="E31" s="11">
-        <v>15995</v>
+        <v>-23596</v>
       </c>
       <c r="F31" s="11">
-        <v>74234</v>
+        <v>73871</v>
       </c>
       <c r="G31" s="11">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="H31" s="11">
-        <v>22830</v>
-      </c>
-      <c r="I31" s="11">
-        <v>13239</v>
-      </c>
-      <c r="J31" s="11">
-        <v>72760</v>
-      </c>
-      <c r="K31" s="11">
-        <v>-23596</v>
-      </c>
-      <c r="L31" s="11">
-        <v>73871</v>
-      </c>
-      <c r="M31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21490</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-413611</v>
+        <v>-580258</v>
       </c>
       <c r="E32" s="17">
-        <v>-477070</v>
+        <v>-276178</v>
       </c>
       <c r="F32" s="17">
-        <v>-602987</v>
+        <v>366138</v>
       </c>
       <c r="G32" s="17">
-        <v>-769850</v>
+        <v>-71439</v>
       </c>
       <c r="H32" s="17">
-        <v>-1513153</v>
-      </c>
-      <c r="I32" s="17">
-        <v>-5801</v>
-      </c>
-      <c r="J32" s="17">
-        <v>-580258</v>
-      </c>
-      <c r="K32" s="17">
-        <v>-276178</v>
-      </c>
-      <c r="L32" s="17">
-        <v>366138</v>
-      </c>
-      <c r="M32" s="17">
-        <v>-71439</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>724737</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>42243</v>
+        <v>38620</v>
       </c>
       <c r="E33" s="19">
-        <v>-16786</v>
+        <v>220025</v>
       </c>
       <c r="F33" s="19">
-        <v>209644</v>
+        <v>776879</v>
       </c>
       <c r="G33" s="19">
-        <v>-91867</v>
+        <v>-240216</v>
       </c>
       <c r="H33" s="19">
-        <v>-794005</v>
-      </c>
-      <c r="I33" s="19">
-        <v>-19948</v>
-      </c>
-      <c r="J33" s="19">
-        <v>38620</v>
-      </c>
-      <c r="K33" s="19">
-        <v>220025</v>
-      </c>
-      <c r="L33" s="19">
-        <v>776879</v>
-      </c>
-      <c r="M33" s="19">
-        <v>-240216</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1386207</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1728,15 +1300,10 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1746,69 +1313,39 @@
         <v>0</v>
       </c>
       <c r="F35" s="15">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G35" s="15">
-        <v>68342</v>
+        <v>0</v>
       </c>
       <c r="H35" s="15">
-        <v>29687</v>
-      </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1826,25 +1363,10 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-      <c r="I37" s="15">
-        <v>0</v>
-      </c>
-      <c r="J37" s="15">
-        <v>0</v>
-      </c>
-      <c r="K37" s="15">
-        <v>0</v>
-      </c>
-      <c r="L37" s="15">
-        <v>0</v>
-      </c>
-      <c r="M37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1862,133 +1384,73 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>50000</v>
+        <v>180051</v>
       </c>
       <c r="E39" s="15">
-        <v>49871</v>
+        <v>197000</v>
       </c>
       <c r="F39" s="15">
         <v>0</v>
       </c>
       <c r="G39" s="15">
-        <v>106000</v>
+        <v>368000</v>
       </c>
       <c r="H39" s="15">
-        <v>1211426</v>
-      </c>
-      <c r="I39" s="15">
-        <v>253000</v>
-      </c>
-      <c r="J39" s="15">
-        <v>180051</v>
-      </c>
-      <c r="K39" s="15">
-        <v>197000</v>
-      </c>
-      <c r="L39" s="15">
-        <v>0</v>
-      </c>
-      <c r="M39" s="15">
-        <v>368000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-15463</v>
+        <v>-140558</v>
       </c>
       <c r="E40" s="11">
-        <v>-34388</v>
+        <v>-215668</v>
       </c>
       <c r="F40" s="11">
-        <v>-60942</v>
+        <v>-252356</v>
       </c>
       <c r="G40" s="11">
-        <v>-56342</v>
+        <v>-220542</v>
       </c>
       <c r="H40" s="11">
-        <v>-46461</v>
-      </c>
-      <c r="I40" s="11">
-        <v>-128170</v>
-      </c>
-      <c r="J40" s="11">
-        <v>-140558</v>
-      </c>
-      <c r="K40" s="11">
-        <v>-215668</v>
-      </c>
-      <c r="L40" s="11">
-        <v>-252356</v>
-      </c>
-      <c r="M40" s="11">
-        <v>-220542</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-887658</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-2826</v>
+        <v>-56512</v>
       </c>
       <c r="E41" s="15">
-        <v>-6055</v>
+        <v>-57823</v>
       </c>
       <c r="F41" s="15">
-        <v>-2319</v>
+        <v>-69864</v>
       </c>
       <c r="G41" s="15">
-        <v>-3123</v>
+        <v>-55713</v>
       </c>
       <c r="H41" s="15">
-        <v>-3581</v>
-      </c>
-      <c r="I41" s="15">
-        <v>-55985</v>
-      </c>
-      <c r="J41" s="15">
-        <v>-56512</v>
-      </c>
-      <c r="K41" s="15">
-        <v>-57823</v>
-      </c>
-      <c r="L41" s="15">
-        <v>-69864</v>
-      </c>
-      <c r="M41" s="15">
-        <v>-55713</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-249349</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -2006,25 +1468,10 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-      <c r="I42" s="11">
-        <v>0</v>
-      </c>
-      <c r="J42" s="11">
-        <v>0</v>
-      </c>
-      <c r="K42" s="11">
-        <v>0</v>
-      </c>
-      <c r="L42" s="11">
-        <v>0</v>
-      </c>
-      <c r="M42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -2042,25 +1489,10 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-      <c r="I43" s="15">
-        <v>0</v>
-      </c>
-      <c r="J43" s="15">
-        <v>0</v>
-      </c>
-      <c r="K43" s="15">
-        <v>0</v>
-      </c>
-      <c r="L43" s="15">
-        <v>0</v>
-      </c>
-      <c r="M43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -2078,25 +1510,10 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <v>0</v>
-      </c>
-      <c r="M44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2114,25 +1531,10 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-      <c r="I45" s="15">
-        <v>0</v>
-      </c>
-      <c r="J45" s="15">
-        <v>0</v>
-      </c>
-      <c r="K45" s="15">
-        <v>0</v>
-      </c>
-      <c r="L45" s="15">
-        <v>0</v>
-      </c>
-      <c r="M45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2150,25 +1552,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2186,25 +1573,10 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2222,25 +1594,10 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2258,275 +1615,155 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-41265</v>
+        <v>-59789</v>
       </c>
       <c r="E50" s="11">
-        <v>-25699</v>
+        <v>-177715</v>
       </c>
       <c r="F50" s="11">
-        <v>-13852</v>
+        <v>-384558</v>
       </c>
       <c r="G50" s="11">
-        <v>-8987</v>
+        <v>-47549</v>
       </c>
       <c r="H50" s="11">
-        <v>-296774</v>
-      </c>
-      <c r="I50" s="11">
-        <v>-50456</v>
-      </c>
-      <c r="J50" s="11">
-        <v>-59789</v>
-      </c>
-      <c r="K50" s="11">
-        <v>-177715</v>
-      </c>
-      <c r="L50" s="11">
-        <v>-384558</v>
-      </c>
-      <c r="M50" s="11">
-        <v>-47549</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-119430</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-271465</v>
+        <v>-76808</v>
       </c>
       <c r="E51" s="17">
-        <v>-16271</v>
+        <v>-254206</v>
       </c>
       <c r="F51" s="17">
-        <v>-77041</v>
+        <v>-706778</v>
       </c>
       <c r="G51" s="17">
-        <v>105890</v>
+        <v>44196</v>
       </c>
       <c r="H51" s="17">
-        <v>894297</v>
-      </c>
-      <c r="I51" s="17">
-        <v>18389</v>
-      </c>
-      <c r="J51" s="17">
-        <v>-76808</v>
-      </c>
-      <c r="K51" s="17">
-        <v>-254206</v>
-      </c>
-      <c r="L51" s="17">
-        <v>-706778</v>
-      </c>
-      <c r="M51" s="17">
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-1061437</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>37818</v>
+        <v>-38188</v>
       </c>
       <c r="E52" s="19">
-        <v>-33057</v>
+        <v>-34181</v>
       </c>
       <c r="F52" s="19">
-        <v>132603</v>
+        <v>70101</v>
       </c>
       <c r="G52" s="19">
-        <v>14023</v>
+        <v>-196020</v>
       </c>
       <c r="H52" s="19">
-        <v>100292</v>
-      </c>
-      <c r="I52" s="19">
-        <v>-1559</v>
-      </c>
-      <c r="J52" s="19">
-        <v>-38188</v>
-      </c>
-      <c r="K52" s="19">
-        <v>-34181</v>
-      </c>
-      <c r="L52" s="19">
-        <v>70101</v>
-      </c>
-      <c r="M52" s="19">
-        <v>-196020</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>324770</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>298195</v>
+        <v>590424</v>
       </c>
       <c r="E53" s="15">
-        <v>344064</v>
+        <v>594854</v>
       </c>
       <c r="F53" s="15">
-        <v>311007</v>
+        <v>554978</v>
       </c>
       <c r="G53" s="15">
-        <v>529795</v>
+        <v>632808</v>
       </c>
       <c r="H53" s="15">
-        <v>495541</v>
-      </c>
-      <c r="I53" s="15">
-        <v>591983</v>
-      </c>
-      <c r="J53" s="15">
-        <v>590424</v>
-      </c>
-      <c r="K53" s="15">
-        <v>594854</v>
-      </c>
-      <c r="L53" s="15">
-        <v>554978</v>
-      </c>
-      <c r="M53" s="15">
-        <v>632808</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+        <v>436788</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>8051</v>
+        <v>42618</v>
       </c>
       <c r="E54" s="11">
-        <v>0</v>
+        <v>-5695</v>
       </c>
       <c r="F54" s="11">
-        <v>86185</v>
+        <v>7729</v>
       </c>
       <c r="G54" s="11">
-        <v>-48277</v>
+        <v>0</v>
       </c>
       <c r="H54" s="11">
-        <v>-3850</v>
-      </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11">
-        <v>42618</v>
-      </c>
-      <c r="K54" s="11">
-        <v>-5695</v>
-      </c>
-      <c r="L54" s="11">
-        <v>7729</v>
-      </c>
-      <c r="M54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>65328</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>344064</v>
+        <v>594854</v>
       </c>
       <c r="E55" s="17">
-        <v>311007</v>
+        <v>554978</v>
       </c>
       <c r="F55" s="17">
-        <v>529795</v>
+        <v>632808</v>
       </c>
       <c r="G55" s="17">
-        <v>495541</v>
+        <v>436788</v>
       </c>
       <c r="H55" s="17">
-        <v>591983</v>
-      </c>
-      <c r="I55" s="17">
-        <v>590424</v>
-      </c>
-      <c r="J55" s="17">
-        <v>594854</v>
-      </c>
-      <c r="K55" s="17">
-        <v>554978</v>
-      </c>
-      <c r="L55" s="17">
-        <v>632808</v>
-      </c>
-      <c r="M55" s="17">
-        <v>436788</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+        <v>826886</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>1922876</v>
+        <v>0</v>
       </c>
       <c r="E56" s="11">
-        <v>205134</v>
+        <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>-129042</v>
+        <v>746750</v>
       </c>
       <c r="G56" s="11">
         <v>0</v>
       </c>
       <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <v>0</v>
-      </c>
-      <c r="J56" s="11">
-        <v>0</v>
-      </c>
-      <c r="K56" s="11">
-        <v>0</v>
-      </c>
-      <c r="L56" s="11">
-        <v>746750</v>
-      </c>
-      <c r="M56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+        <v>496097</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2534,11 +1771,6 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/shishe/kehamda/cashflow/quarterly.xlsx
+++ b/database/industries/shishe/kehamda/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4537E5-0D58-4A64-8C34-0A5DDA36D11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6849926F-3CFD-48E2-97C1-8E8BCC712969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -55,19 +70,34 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-10-29 (3)</t>
+    <t>1400-07-30 (2)</t>
+  </si>
+  <si>
+    <t>1400-11-27 (4)</t>
+  </si>
+  <si>
+    <t>1401-01-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-07-20 (9)</t>
+  </si>
+  <si>
+    <t>1401-07-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-12-03 (4)</t>
   </si>
   <si>
     <t>1401-01-30</t>
   </si>
   <si>
-    <t>1401-10-29 (5)</t>
+    <t>1401-12-03 (6)</t>
   </si>
   <si>
     <t>1401-07-30</t>
   </si>
   <si>
-    <t>1401-10-29</t>
+    <t>1401-12-03 (2)</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -692,20 +722,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="12" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -713,8 +745,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +761,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -735,8 +777,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -744,8 +791,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -755,8 +807,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,8 +823,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -775,8 +837,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -796,29 +863,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,10 +923,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -837,73 +939,123 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>467994</v>
+      </c>
+      <c r="E12" s="15">
+        <v>866371</v>
+      </c>
+      <c r="F12" s="15">
+        <v>734983</v>
+      </c>
+      <c r="G12" s="15">
+        <v>776148</v>
+      </c>
+      <c r="H12" s="15">
+        <v>42853</v>
+      </c>
+      <c r="I12" s="15">
         <v>752720</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>621660</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>550317</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>-101277</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>683970</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-7710</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-53740</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-57000</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-57000</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-57000</v>
+      </c>
+      <c r="I13" s="11">
         <v>-133842</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>-125457</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>-139576</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>-67500</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>-22500</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>460284</v>
+      </c>
+      <c r="E14" s="17">
+        <v>812631</v>
+      </c>
+      <c r="F14" s="17">
+        <v>677983</v>
+      </c>
+      <c r="G14" s="17">
+        <v>719148</v>
+      </c>
+      <c r="H14" s="17">
+        <v>-14147</v>
+      </c>
+      <c r="I14" s="17">
         <v>618878</v>
       </c>
-      <c r="E14" s="17">
+      <c r="J14" s="17">
         <v>496203</v>
       </c>
-      <c r="F14" s="17">
+      <c r="K14" s="17">
         <v>410741</v>
       </c>
-      <c r="G14" s="17">
+      <c r="L14" s="17">
         <v>-168777</v>
       </c>
-      <c r="H14" s="17">
+      <c r="M14" s="17">
         <v>661470</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -911,10 +1063,15 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
@@ -927,46 +1084,76 @@
         <v>0</v>
       </c>
       <c r="G16" s="15">
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
         <v>1675040</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>-106195</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-526432</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-408492</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-1447556</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-115013</v>
+      </c>
+      <c r="I17" s="11">
         <v>-538057</v>
       </c>
-      <c r="E17" s="11">
+      <c r="J17" s="11">
         <v>-359507</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>238862</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>-129762</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>-239691</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
         <v>0</v>
       </c>
       <c r="E18" s="15">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F18" s="15">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G18" s="15">
         <v>0</v>
@@ -974,10 +1161,25 @@
       <c r="H18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -995,52 +1197,97 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>-6354</v>
+      </c>
+      <c r="F20" s="15">
+        <v>-17349</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-2341</v>
+      </c>
+      <c r="H20" s="15">
+        <v>-1613</v>
+      </c>
+      <c r="I20" s="15">
         <v>-53107</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>-846</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>-224</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>-380</v>
       </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="11">
+        <v>-27935</v>
+      </c>
+      <c r="F21" s="11">
+        <v>-21545</v>
+      </c>
+      <c r="G21" s="11">
+        <v>-27216</v>
+      </c>
+      <c r="H21" s="11">
+        <v>-33932</v>
+      </c>
+      <c r="I21" s="11">
         <v>-68441</v>
       </c>
-      <c r="E21" s="11">
+      <c r="J21" s="11">
         <v>-15054</v>
       </c>
-      <c r="F21" s="11">
+      <c r="K21" s="11">
         <v>-21061</v>
       </c>
-      <c r="G21" s="11">
+      <c r="L21" s="11">
         <v>-6650</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>-26318</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1058,10 +1305,25 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1079,73 +1341,133 @@
       <c r="H23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
+        <v>-386218</v>
+      </c>
+      <c r="E24" s="15">
+        <v>-122650</v>
+      </c>
+      <c r="F24" s="15">
+        <v>-122775</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-122614</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
         <v>-10000</v>
       </c>
-      <c r="E24" s="15">
+      <c r="J24" s="15">
         <v>-30813</v>
       </c>
-      <c r="F24" s="15">
+      <c r="K24" s="15">
         <v>5</v>
       </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
         <v>-15070</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F25" s="11">
+        <v>7398</v>
+      </c>
+      <c r="G25" s="11">
+        <v>58687</v>
+      </c>
+      <c r="H25" s="11">
+        <v>131518</v>
+      </c>
+      <c r="I25" s="11">
         <v>82558</v>
       </c>
-      <c r="E25" s="11">
+      <c r="J25" s="11">
         <v>111433</v>
       </c>
-      <c r="F25" s="11">
+      <c r="K25" s="11">
         <v>-1</v>
       </c>
-      <c r="G25" s="11">
+      <c r="L25" s="11">
         <v>54228</v>
       </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>-58850</v>
+      </c>
+      <c r="F26" s="15">
+        <v>-243555</v>
+      </c>
+      <c r="G26" s="15">
+        <v>3594</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
         <v>-72716</v>
       </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15">
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
         <v>72716</v>
       </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
         <v>-692890</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1163,10 +1485,25 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1184,10 +1521,25 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1205,94 +1557,169 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
+        <v>348</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>427</v>
+      </c>
+      <c r="G30" s="15">
+        <v>74</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
         <v>6745</v>
       </c>
-      <c r="E30" s="15">
+      <c r="J30" s="15">
         <v>42205</v>
       </c>
-      <c r="F30" s="15">
+      <c r="K30" s="15">
         <v>1970</v>
       </c>
-      <c r="G30" s="15">
+      <c r="L30" s="15">
         <v>11125</v>
       </c>
-      <c r="H30" s="15">
+      <c r="M30" s="15">
         <v>2176</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>15995</v>
+      </c>
+      <c r="E31" s="11">
+        <v>74234</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1041</v>
+      </c>
+      <c r="G31" s="11">
+        <v>22830</v>
+      </c>
+      <c r="H31" s="11">
+        <v>13239</v>
+      </c>
+      <c r="I31" s="11">
         <v>72760</v>
       </c>
-      <c r="E31" s="11">
+      <c r="J31" s="11">
         <v>-23596</v>
       </c>
-      <c r="F31" s="11">
+      <c r="K31" s="11">
         <v>73871</v>
       </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
         <v>21490</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>-477070</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-602987</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-769850</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-1513153</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-5801</v>
+      </c>
+      <c r="I32" s="17">
         <v>-580258</v>
       </c>
-      <c r="E32" s="17">
+      <c r="J32" s="17">
         <v>-276178</v>
       </c>
-      <c r="F32" s="17">
+      <c r="K32" s="17">
         <v>366138</v>
       </c>
-      <c r="G32" s="17">
+      <c r="L32" s="17">
         <v>-71439</v>
       </c>
-      <c r="H32" s="17">
+      <c r="M32" s="17">
         <v>724737</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>-16786</v>
+      </c>
+      <c r="E33" s="19">
+        <v>209644</v>
+      </c>
+      <c r="F33" s="19">
+        <v>-91867</v>
+      </c>
+      <c r="G33" s="19">
+        <v>-794005</v>
+      </c>
+      <c r="H33" s="19">
+        <v>-19948</v>
+      </c>
+      <c r="I33" s="19">
         <v>38620</v>
       </c>
-      <c r="E33" s="19">
+      <c r="J33" s="19">
         <v>220025</v>
       </c>
-      <c r="F33" s="19">
+      <c r="K33" s="19">
         <v>776879</v>
       </c>
-      <c r="G33" s="19">
+      <c r="L33" s="19">
         <v>-240216</v>
       </c>
-      <c r="H33" s="19">
+      <c r="M33" s="19">
         <v>1386207</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1300,52 +1727,87 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
         <v>0</v>
       </c>
       <c r="E35" s="15">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F35" s="15">
-        <v>0</v>
+        <v>68342</v>
       </c>
       <c r="G35" s="15">
-        <v>0</v>
+        <v>29687</v>
       </c>
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1363,10 +1825,25 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1384,73 +1861,133 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
+        <v>49871</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
+        <v>106000</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1211426</v>
+      </c>
+      <c r="H39" s="15">
+        <v>253000</v>
+      </c>
+      <c r="I39" s="15">
         <v>180051</v>
       </c>
-      <c r="E39" s="15">
+      <c r="J39" s="15">
         <v>197000</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
         <v>368000</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>195000</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>-34388</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-60942</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-56342</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-46461</v>
+      </c>
+      <c r="H40" s="11">
+        <v>-128170</v>
+      </c>
+      <c r="I40" s="11">
         <v>-140558</v>
       </c>
-      <c r="E40" s="11">
+      <c r="J40" s="11">
         <v>-215668</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>-252356</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>-220542</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>-887658</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-6055</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-2319</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-3123</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-3581</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-55985</v>
+      </c>
+      <c r="I41" s="15">
         <v>-56512</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>-57823</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>-69864</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>-55713</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>-249349</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -1468,10 +2005,25 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -1489,10 +2041,25 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -1510,10 +2077,25 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1531,10 +2113,25 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1552,10 +2149,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1573,10 +2185,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1594,10 +2221,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1615,155 +2257,275 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-25699</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-13852</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-8987</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-296774</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-50456</v>
+      </c>
+      <c r="I50" s="11">
         <v>-59789</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
         <v>-177715</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>-384558</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>-47549</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>-119430</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>-16271</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-77041</v>
+      </c>
+      <c r="F51" s="17">
+        <v>105890</v>
+      </c>
+      <c r="G51" s="17">
+        <v>894297</v>
+      </c>
+      <c r="H51" s="17">
+        <v>18389</v>
+      </c>
+      <c r="I51" s="17">
         <v>-76808</v>
       </c>
-      <c r="E51" s="17">
+      <c r="J51" s="17">
         <v>-254206</v>
       </c>
-      <c r="F51" s="17">
+      <c r="K51" s="17">
         <v>-706778</v>
       </c>
-      <c r="G51" s="17">
+      <c r="L51" s="17">
         <v>44196</v>
       </c>
-      <c r="H51" s="17">
+      <c r="M51" s="17">
         <v>-1061437</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>-33057</v>
+      </c>
+      <c r="E52" s="19">
+        <v>132603</v>
+      </c>
+      <c r="F52" s="19">
+        <v>14023</v>
+      </c>
+      <c r="G52" s="19">
+        <v>100292</v>
+      </c>
+      <c r="H52" s="19">
+        <v>-1559</v>
+      </c>
+      <c r="I52" s="19">
         <v>-38188</v>
       </c>
-      <c r="E52" s="19">
+      <c r="J52" s="19">
         <v>-34181</v>
       </c>
-      <c r="F52" s="19">
+      <c r="K52" s="19">
         <v>70101</v>
       </c>
-      <c r="G52" s="19">
+      <c r="L52" s="19">
         <v>-196020</v>
       </c>
-      <c r="H52" s="19">
+      <c r="M52" s="19">
         <v>324770</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>344064</v>
+      </c>
+      <c r="E53" s="15">
+        <v>311007</v>
+      </c>
+      <c r="F53" s="15">
+        <v>529795</v>
+      </c>
+      <c r="G53" s="15">
+        <v>495541</v>
+      </c>
+      <c r="H53" s="15">
+        <v>591983</v>
+      </c>
+      <c r="I53" s="15">
         <v>590424</v>
       </c>
-      <c r="E53" s="15">
+      <c r="J53" s="15">
         <v>594854</v>
       </c>
-      <c r="F53" s="15">
+      <c r="K53" s="15">
         <v>554978</v>
       </c>
-      <c r="G53" s="15">
+      <c r="L53" s="15">
         <v>632808</v>
       </c>
-      <c r="H53" s="15">
+      <c r="M53" s="15">
         <v>436788</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>86185</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-48277</v>
+      </c>
+      <c r="G54" s="11">
+        <v>-3850</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
         <v>42618</v>
       </c>
-      <c r="E54" s="11">
+      <c r="J54" s="11">
         <v>-5695</v>
       </c>
-      <c r="F54" s="11">
+      <c r="K54" s="11">
         <v>7729</v>
       </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
         <v>65328</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>311007</v>
+      </c>
+      <c r="E55" s="17">
+        <v>529795</v>
+      </c>
+      <c r="F55" s="17">
+        <v>495541</v>
+      </c>
+      <c r="G55" s="17">
+        <v>591983</v>
+      </c>
+      <c r="H55" s="17">
+        <v>590424</v>
+      </c>
+      <c r="I55" s="17">
         <v>594854</v>
       </c>
-      <c r="E55" s="17">
+      <c r="J55" s="17">
         <v>554978</v>
       </c>
-      <c r="F55" s="17">
+      <c r="K55" s="17">
         <v>632808</v>
       </c>
-      <c r="G55" s="17">
+      <c r="L55" s="17">
         <v>436788</v>
       </c>
-      <c r="H55" s="17">
+      <c r="M55" s="17">
         <v>826886</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>0</v>
+        <v>205134</v>
       </c>
       <c r="E56" s="11">
-        <v>0</v>
+        <v>-129042</v>
       </c>
       <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
         <v>746750</v>
       </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
         <v>496097</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1771,6 +2533,11 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/shishe/kehamda/cashflow/quarterly.xlsx
+++ b/database/industries/shishe/kehamda/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6849926F-3CFD-48E2-97C1-8E8BCC712969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76286DC-92EA-4829-A132-38B187A6300E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل دوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل دوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-07-30 (2)</t>
-  </si>
-  <si>
     <t>1400-11-27 (4)</t>
   </si>
   <si>
@@ -88,16 +85,19 @@
     <t>1401-12-03 (4)</t>
   </si>
   <si>
-    <t>1401-01-30</t>
-  </si>
-  <si>
-    <t>1401-12-03 (6)</t>
+    <t>1402-01-30 (2)</t>
+  </si>
+  <si>
+    <t>1402-01-30 (7)</t>
   </si>
   <si>
     <t>1401-07-30</t>
   </si>
   <si>
     <t>1401-12-03 (2)</t>
+  </si>
+  <si>
+    <t>1402-01-30</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -726,18 +726,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,7 +751,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,7 +797,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,7 +843,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -879,7 +879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -915,7 +915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,7 +929,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -945,52 +945,52 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>467994</v>
+        <v>866371</v>
       </c>
       <c r="E12" s="15">
-        <v>866371</v>
+        <v>734983</v>
       </c>
       <c r="F12" s="15">
-        <v>734983</v>
+        <v>776148</v>
       </c>
       <c r="G12" s="15">
-        <v>776148</v>
+        <v>42853</v>
       </c>
       <c r="H12" s="15">
-        <v>42853</v>
+        <v>752720</v>
       </c>
       <c r="I12" s="15">
-        <v>752720</v>
+        <v>621660</v>
       </c>
       <c r="J12" s="15">
-        <v>621660</v>
+        <v>550317</v>
       </c>
       <c r="K12" s="15">
-        <v>550317</v>
+        <v>-101277</v>
       </c>
       <c r="L12" s="15">
-        <v>-101277</v>
+        <v>683970</v>
       </c>
       <c r="M12" s="15">
-        <v>683970</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>338605</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-7710</v>
+        <v>-53740</v>
       </c>
       <c r="E13" s="11">
-        <v>-53740</v>
+        <v>-57000</v>
       </c>
       <c r="F13" s="11">
         <v>-57000</v>
@@ -999,61 +999,61 @@
         <v>-57000</v>
       </c>
       <c r="H13" s="11">
-        <v>-57000</v>
+        <v>-133842</v>
       </c>
       <c r="I13" s="11">
-        <v>-133842</v>
+        <v>-125457</v>
       </c>
       <c r="J13" s="11">
-        <v>-125457</v>
+        <v>-139576</v>
       </c>
       <c r="K13" s="11">
-        <v>-139576</v>
+        <v>-67500</v>
       </c>
       <c r="L13" s="11">
-        <v>-67500</v>
+        <v>-22500</v>
       </c>
       <c r="M13" s="11">
-        <v>-22500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>460284</v>
+        <v>812631</v>
       </c>
       <c r="E14" s="17">
-        <v>812631</v>
+        <v>677983</v>
       </c>
       <c r="F14" s="17">
-        <v>677983</v>
+        <v>719148</v>
       </c>
       <c r="G14" s="17">
-        <v>719148</v>
+        <v>-14147</v>
       </c>
       <c r="H14" s="17">
-        <v>-14147</v>
+        <v>618878</v>
       </c>
       <c r="I14" s="17">
-        <v>618878</v>
+        <v>496203</v>
       </c>
       <c r="J14" s="17">
-        <v>496203</v>
+        <v>410741</v>
       </c>
       <c r="K14" s="17">
-        <v>410741</v>
+        <v>-168777</v>
       </c>
       <c r="L14" s="17">
-        <v>-168777</v>
+        <v>661470</v>
       </c>
       <c r="M14" s="17">
-        <v>661470</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>338605</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="15">
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="G16" s="15">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="H16" s="15">
         <v>0</v>
@@ -1099,61 +1099,61 @@
         <v>0</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <v>1675040</v>
       </c>
       <c r="M16" s="15">
-        <v>1675040</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-106195</v>
+        <v>-526432</v>
       </c>
       <c r="E17" s="11">
-        <v>-526432</v>
+        <v>-408492</v>
       </c>
       <c r="F17" s="11">
-        <v>-408492</v>
+        <v>-1447556</v>
       </c>
       <c r="G17" s="11">
-        <v>-1447556</v>
+        <v>-115013</v>
       </c>
       <c r="H17" s="11">
-        <v>-115013</v>
+        <v>-538057</v>
       </c>
       <c r="I17" s="11">
-        <v>-538057</v>
+        <v>-359507</v>
       </c>
       <c r="J17" s="11">
-        <v>-359507</v>
+        <v>238862</v>
       </c>
       <c r="K17" s="11">
-        <v>238862</v>
+        <v>-129762</v>
       </c>
       <c r="L17" s="11">
-        <v>-129762</v>
+        <v>-239691</v>
       </c>
       <c r="M17" s="11">
-        <v>-239691</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-39127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="E18" s="15">
         <v>35000</v>
       </c>
       <c r="F18" s="15">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="G18" s="15">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1213,79 +1213,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>0</v>
+        <v>-6354</v>
       </c>
       <c r="E20" s="15">
-        <v>-6354</v>
+        <v>-17349</v>
       </c>
       <c r="F20" s="15">
-        <v>-17349</v>
+        <v>-2341</v>
       </c>
       <c r="G20" s="15">
-        <v>-2341</v>
+        <v>-1613</v>
       </c>
       <c r="H20" s="15">
-        <v>-1613</v>
+        <v>-53107</v>
       </c>
       <c r="I20" s="15">
-        <v>-53107</v>
+        <v>-846</v>
       </c>
       <c r="J20" s="15">
-        <v>-846</v>
+        <v>-224</v>
       </c>
       <c r="K20" s="15">
-        <v>-224</v>
+        <v>-380</v>
       </c>
       <c r="L20" s="15">
-        <v>-380</v>
+        <v>0</v>
       </c>
       <c r="M20" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
-        <v>-1000</v>
+        <v>-27935</v>
       </c>
       <c r="E21" s="11">
-        <v>-27935</v>
+        <v>-21545</v>
       </c>
       <c r="F21" s="11">
-        <v>-21545</v>
+        <v>-27216</v>
       </c>
       <c r="G21" s="11">
-        <v>-27216</v>
+        <v>-33932</v>
       </c>
       <c r="H21" s="11">
-        <v>-33932</v>
+        <v>-68441</v>
       </c>
       <c r="I21" s="11">
-        <v>-68441</v>
+        <v>-15054</v>
       </c>
       <c r="J21" s="11">
-        <v>-15054</v>
+        <v>-21061</v>
       </c>
       <c r="K21" s="11">
-        <v>-21061</v>
+        <v>-6650</v>
       </c>
       <c r="L21" s="11">
-        <v>-6650</v>
+        <v>-26318</v>
       </c>
       <c r="M21" s="11">
-        <v>-26318</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-4598</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1357,115 +1357,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>-386218</v>
+        <v>-122650</v>
       </c>
       <c r="E24" s="15">
-        <v>-122650</v>
+        <v>-122775</v>
       </c>
       <c r="F24" s="15">
-        <v>-122775</v>
+        <v>-122614</v>
       </c>
       <c r="G24" s="15">
-        <v>-122614</v>
+        <v>0</v>
       </c>
       <c r="H24" s="15">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="I24" s="15">
-        <v>-10000</v>
+        <v>-30813</v>
       </c>
       <c r="J24" s="15">
-        <v>-30813</v>
+        <v>5</v>
       </c>
       <c r="K24" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L24" s="15">
-        <v>0</v>
+        <v>-15070</v>
       </c>
       <c r="M24" s="15">
-        <v>-15070</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-46796</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="E25" s="11">
-        <v>30000</v>
+        <v>7398</v>
       </c>
       <c r="F25" s="11">
-        <v>7398</v>
+        <v>58687</v>
       </c>
       <c r="G25" s="11">
-        <v>58687</v>
+        <v>131518</v>
       </c>
       <c r="H25" s="11">
-        <v>131518</v>
+        <v>82558</v>
       </c>
       <c r="I25" s="11">
-        <v>82558</v>
+        <v>111433</v>
       </c>
       <c r="J25" s="11">
-        <v>111433</v>
+        <v>-1</v>
       </c>
       <c r="K25" s="11">
-        <v>-1</v>
+        <v>54228</v>
       </c>
       <c r="L25" s="11">
-        <v>54228</v>
+        <v>0</v>
       </c>
       <c r="M25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>199999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>-58850</v>
       </c>
       <c r="E26" s="15">
-        <v>-58850</v>
+        <v>-243555</v>
       </c>
       <c r="F26" s="15">
-        <v>-243555</v>
+        <v>3594</v>
       </c>
       <c r="G26" s="15">
-        <v>3594</v>
+        <v>0</v>
       </c>
       <c r="H26" s="15">
-        <v>0</v>
+        <v>-72716</v>
       </c>
       <c r="I26" s="15">
-        <v>-72716</v>
+        <v>0</v>
       </c>
       <c r="J26" s="15">
-        <v>0</v>
+        <v>72716</v>
       </c>
       <c r="K26" s="15">
-        <v>72716</v>
+        <v>0</v>
       </c>
       <c r="L26" s="15">
-        <v>0</v>
+        <v>-692890</v>
       </c>
       <c r="M26" s="15">
-        <v>-692890</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-191196</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
@@ -1573,151 +1573,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="E30" s="15">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="F30" s="15">
-        <v>427</v>
+        <v>74</v>
       </c>
       <c r="G30" s="15">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H30" s="15">
-        <v>0</v>
+        <v>6745</v>
       </c>
       <c r="I30" s="15">
-        <v>6745</v>
+        <v>42205</v>
       </c>
       <c r="J30" s="15">
-        <v>42205</v>
+        <v>1970</v>
       </c>
       <c r="K30" s="15">
-        <v>1970</v>
+        <v>11125</v>
       </c>
       <c r="L30" s="15">
-        <v>11125</v>
+        <v>2176</v>
       </c>
       <c r="M30" s="15">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>36696</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>15995</v>
+        <v>74234</v>
       </c>
       <c r="E31" s="11">
-        <v>74234</v>
+        <v>1041</v>
       </c>
       <c r="F31" s="11">
-        <v>1041</v>
+        <v>22830</v>
       </c>
       <c r="G31" s="11">
-        <v>22830</v>
+        <v>13239</v>
       </c>
       <c r="H31" s="11">
-        <v>13239</v>
+        <v>72760</v>
       </c>
       <c r="I31" s="11">
-        <v>72760</v>
+        <v>-23596</v>
       </c>
       <c r="J31" s="11">
-        <v>-23596</v>
+        <v>73871</v>
       </c>
       <c r="K31" s="11">
-        <v>73871</v>
+        <v>0</v>
       </c>
       <c r="L31" s="11">
-        <v>0</v>
+        <v>21490</v>
       </c>
       <c r="M31" s="11">
-        <v>21490</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>33591</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-477070</v>
+        <v>-602987</v>
       </c>
       <c r="E32" s="17">
-        <v>-602987</v>
+        <v>-769850</v>
       </c>
       <c r="F32" s="17">
-        <v>-769850</v>
+        <v>-1513153</v>
       </c>
       <c r="G32" s="17">
-        <v>-1513153</v>
+        <v>-5801</v>
       </c>
       <c r="H32" s="17">
-        <v>-5801</v>
+        <v>-580258</v>
       </c>
       <c r="I32" s="17">
-        <v>-580258</v>
+        <v>-276178</v>
       </c>
       <c r="J32" s="17">
-        <v>-276178</v>
+        <v>366138</v>
       </c>
       <c r="K32" s="17">
-        <v>366138</v>
+        <v>-71439</v>
       </c>
       <c r="L32" s="17">
-        <v>-71439</v>
+        <v>724737</v>
       </c>
       <c r="M32" s="17">
-        <v>724737</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-11431</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>-16786</v>
+        <v>209644</v>
       </c>
       <c r="E33" s="19">
-        <v>209644</v>
+        <v>-91867</v>
       </c>
       <c r="F33" s="19">
-        <v>-91867</v>
+        <v>-794005</v>
       </c>
       <c r="G33" s="19">
-        <v>-794005</v>
+        <v>-19948</v>
       </c>
       <c r="H33" s="19">
-        <v>-19948</v>
+        <v>38620</v>
       </c>
       <c r="I33" s="19">
-        <v>38620</v>
+        <v>220025</v>
       </c>
       <c r="J33" s="19">
-        <v>220025</v>
+        <v>776879</v>
       </c>
       <c r="K33" s="19">
-        <v>776879</v>
+        <v>-240216</v>
       </c>
       <c r="L33" s="19">
-        <v>-240216</v>
+        <v>1386207</v>
       </c>
       <c r="M33" s="19">
-        <v>1386207</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>327174</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>49</v>
       </c>
@@ -1733,22 +1733,22 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E35" s="15">
-        <v>72</v>
+        <v>68342</v>
       </c>
       <c r="F35" s="15">
-        <v>68342</v>
+        <v>29687</v>
       </c>
       <c r="G35" s="15">
-        <v>29687</v>
+        <v>0</v>
       </c>
       <c r="H35" s="15">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
@@ -1789,11 +1789,11 @@
       <c r="H36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>52</v>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>52</v>
@@ -1801,11 +1801,11 @@
       <c r="L36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M36" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1877,115 +1877,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>49871</v>
+        <v>0</v>
       </c>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>106000</v>
       </c>
       <c r="F39" s="15">
-        <v>106000</v>
+        <v>1211426</v>
       </c>
       <c r="G39" s="15">
-        <v>1211426</v>
+        <v>253000</v>
       </c>
       <c r="H39" s="15">
-        <v>253000</v>
+        <v>180051</v>
       </c>
       <c r="I39" s="15">
-        <v>180051</v>
+        <v>197000</v>
       </c>
       <c r="J39" s="15">
-        <v>197000</v>
+        <v>0</v>
       </c>
       <c r="K39" s="15">
-        <v>0</v>
+        <v>368000</v>
       </c>
       <c r="L39" s="15">
-        <v>368000</v>
+        <v>195000</v>
       </c>
       <c r="M39" s="15">
-        <v>195000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <v>429142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-34388</v>
+        <v>-60942</v>
       </c>
       <c r="E40" s="11">
-        <v>-60942</v>
+        <v>-56342</v>
       </c>
       <c r="F40" s="11">
-        <v>-56342</v>
+        <v>-46461</v>
       </c>
       <c r="G40" s="11">
-        <v>-46461</v>
+        <v>-128170</v>
       </c>
       <c r="H40" s="11">
-        <v>-128170</v>
+        <v>-140558</v>
       </c>
       <c r="I40" s="11">
-        <v>-140558</v>
+        <v>-215668</v>
       </c>
       <c r="J40" s="11">
-        <v>-215668</v>
+        <v>-252356</v>
       </c>
       <c r="K40" s="11">
-        <v>-252356</v>
+        <v>-220542</v>
       </c>
       <c r="L40" s="11">
-        <v>-220542</v>
+        <v>-887658</v>
       </c>
       <c r="M40" s="11">
-        <v>-887658</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-322038</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-6055</v>
+        <v>-2319</v>
       </c>
       <c r="E41" s="15">
-        <v>-2319</v>
+        <v>-3123</v>
       </c>
       <c r="F41" s="15">
-        <v>-3123</v>
+        <v>-3581</v>
       </c>
       <c r="G41" s="15">
-        <v>-3581</v>
+        <v>-55985</v>
       </c>
       <c r="H41" s="15">
-        <v>-55985</v>
+        <v>-56512</v>
       </c>
       <c r="I41" s="15">
-        <v>-56512</v>
+        <v>-57823</v>
       </c>
       <c r="J41" s="15">
-        <v>-57823</v>
+        <v>-69864</v>
       </c>
       <c r="K41" s="15">
-        <v>-69864</v>
+        <v>-55713</v>
       </c>
       <c r="L41" s="15">
-        <v>-55713</v>
+        <v>-249349</v>
       </c>
       <c r="M41" s="15">
-        <v>-249349</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-154923</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>58</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>59</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>60</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2273,232 +2273,232 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-25699</v>
+        <v>-13852</v>
       </c>
       <c r="E50" s="11">
-        <v>-13852</v>
+        <v>-8987</v>
       </c>
       <c r="F50" s="11">
-        <v>-8987</v>
+        <v>-296774</v>
       </c>
       <c r="G50" s="11">
-        <v>-296774</v>
+        <v>-50456</v>
       </c>
       <c r="H50" s="11">
-        <v>-50456</v>
+        <v>-59789</v>
       </c>
       <c r="I50" s="11">
-        <v>-59789</v>
+        <v>-177715</v>
       </c>
       <c r="J50" s="11">
-        <v>-177715</v>
+        <v>-384558</v>
       </c>
       <c r="K50" s="11">
-        <v>-384558</v>
+        <v>-47549</v>
       </c>
       <c r="L50" s="11">
-        <v>-47549</v>
+        <v>-119430</v>
       </c>
       <c r="M50" s="11">
-        <v>-119430</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-277698</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-16271</v>
+        <v>-77041</v>
       </c>
       <c r="E51" s="17">
-        <v>-77041</v>
+        <v>105890</v>
       </c>
       <c r="F51" s="17">
-        <v>105890</v>
+        <v>894297</v>
       </c>
       <c r="G51" s="17">
-        <v>894297</v>
+        <v>18389</v>
       </c>
       <c r="H51" s="17">
-        <v>18389</v>
+        <v>-76808</v>
       </c>
       <c r="I51" s="17">
-        <v>-76808</v>
+        <v>-254206</v>
       </c>
       <c r="J51" s="17">
-        <v>-254206</v>
+        <v>-706778</v>
       </c>
       <c r="K51" s="17">
-        <v>-706778</v>
+        <v>44196</v>
       </c>
       <c r="L51" s="17">
-        <v>44196</v>
+        <v>-1061437</v>
       </c>
       <c r="M51" s="17">
-        <v>-1061437</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-325517</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>-33057</v>
+        <v>132603</v>
       </c>
       <c r="E52" s="19">
-        <v>132603</v>
+        <v>14023</v>
       </c>
       <c r="F52" s="19">
-        <v>14023</v>
+        <v>100292</v>
       </c>
       <c r="G52" s="19">
-        <v>100292</v>
+        <v>-1559</v>
       </c>
       <c r="H52" s="19">
-        <v>-1559</v>
+        <v>-38188</v>
       </c>
       <c r="I52" s="19">
-        <v>-38188</v>
+        <v>-34181</v>
       </c>
       <c r="J52" s="19">
-        <v>-34181</v>
+        <v>70101</v>
       </c>
       <c r="K52" s="19">
-        <v>70101</v>
+        <v>-196020</v>
       </c>
       <c r="L52" s="19">
-        <v>-196020</v>
+        <v>324770</v>
       </c>
       <c r="M52" s="19">
-        <v>324770</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>344064</v>
+        <v>311007</v>
       </c>
       <c r="E53" s="15">
-        <v>311007</v>
+        <v>529795</v>
       </c>
       <c r="F53" s="15">
-        <v>529795</v>
+        <v>495541</v>
       </c>
       <c r="G53" s="15">
-        <v>495541</v>
+        <v>591983</v>
       </c>
       <c r="H53" s="15">
-        <v>591983</v>
+        <v>590424</v>
       </c>
       <c r="I53" s="15">
-        <v>590424</v>
+        <v>594854</v>
       </c>
       <c r="J53" s="15">
-        <v>594854</v>
+        <v>554978</v>
       </c>
       <c r="K53" s="15">
-        <v>554978</v>
+        <v>632808</v>
       </c>
       <c r="L53" s="15">
-        <v>632808</v>
+        <v>436788</v>
       </c>
       <c r="M53" s="15">
-        <v>436788</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+        <v>826886</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>0</v>
+        <v>86185</v>
       </c>
       <c r="E54" s="11">
-        <v>86185</v>
+        <v>-48277</v>
       </c>
       <c r="F54" s="11">
-        <v>-48277</v>
+        <v>-3850</v>
       </c>
       <c r="G54" s="11">
-        <v>-3850</v>
+        <v>0</v>
       </c>
       <c r="H54" s="11">
-        <v>0</v>
+        <v>42618</v>
       </c>
       <c r="I54" s="11">
-        <v>42618</v>
+        <v>-5695</v>
       </c>
       <c r="J54" s="11">
-        <v>-5695</v>
+        <v>7729</v>
       </c>
       <c r="K54" s="11">
-        <v>7729</v>
+        <v>0</v>
       </c>
       <c r="L54" s="11">
-        <v>0</v>
+        <v>65328</v>
       </c>
       <c r="M54" s="11">
-        <v>65328</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-65328</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>311007</v>
+        <v>529795</v>
       </c>
       <c r="E55" s="17">
-        <v>529795</v>
+        <v>495541</v>
       </c>
       <c r="F55" s="17">
-        <v>495541</v>
+        <v>591983</v>
       </c>
       <c r="G55" s="17">
-        <v>591983</v>
+        <v>590424</v>
       </c>
       <c r="H55" s="17">
-        <v>590424</v>
+        <v>594854</v>
       </c>
       <c r="I55" s="17">
-        <v>594854</v>
+        <v>554978</v>
       </c>
       <c r="J55" s="17">
-        <v>554978</v>
+        <v>632808</v>
       </c>
       <c r="K55" s="17">
-        <v>632808</v>
+        <v>436788</v>
       </c>
       <c r="L55" s="17">
-        <v>436788</v>
+        <v>826886</v>
       </c>
       <c r="M55" s="17">
-        <v>826886</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+        <v>763215</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>205134</v>
+        <v>-129042</v>
       </c>
       <c r="E56" s="11">
-        <v>-129042</v>
+        <v>0</v>
       </c>
       <c r="F56" s="11">
         <v>0</v>
@@ -2513,19 +2513,19 @@
         <v>0</v>
       </c>
       <c r="J56" s="11">
-        <v>0</v>
+        <v>746750</v>
       </c>
       <c r="K56" s="11">
-        <v>746750</v>
+        <v>0</v>
       </c>
       <c r="L56" s="11">
-        <v>0</v>
+        <v>496097</v>
       </c>
       <c r="M56" s="11">
-        <v>496097</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-449696</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>

--- a/database/industries/shishe/kehamda/cashflow/quarterly.xlsx
+++ b/database/industries/shishe/kehamda/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\shishe\kehamda\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76286DC-92EA-4829-A132-38B187A6300E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7981567-63F2-499B-998B-62D497C11536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1464" windowWidth="20460" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>کهمدا-شیشه‌ همدان‌</t>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل سوم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-11-30 (4)</t>
+  </si>
+  <si>
+    <t>1399-01-30 (3)</t>
+  </si>
+  <si>
+    <t>1399-07-16 (9)</t>
+  </si>
+  <si>
+    <t>1399-07-30 (3)</t>
+  </si>
+  <si>
+    <t>1399-12-25 (4)</t>
+  </si>
+  <si>
+    <t>1400-01-30 (2)</t>
+  </si>
+  <si>
+    <t>1400-07-12 (8)</t>
+  </si>
+  <si>
+    <t>1400-07-30 (2)</t>
+  </si>
+  <si>
     <t>1400-11-27 (4)</t>
   </si>
   <si>
@@ -88,16 +142,22 @@
     <t>1402-01-30 (2)</t>
   </si>
   <si>
-    <t>1402-01-30 (7)</t>
-  </si>
-  <si>
-    <t>1401-07-30</t>
+    <t>1402-07-19 (9)</t>
+  </si>
+  <si>
+    <t>1402-07-30 (2)</t>
   </si>
   <si>
     <t>1401-12-03 (2)</t>
   </si>
   <si>
     <t>1402-01-30</t>
+  </si>
+  <si>
+    <t>1402-07-30 (3)</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -722,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+  <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,9 +795,15 @@
     <col min="7" max="9" width="29" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
     <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="14" max="14" width="31" customWidth="1"/>
+    <col min="15" max="17" width="29" customWidth="1"/>
+    <col min="18" max="18" width="31" customWidth="1"/>
+    <col min="19" max="21" width="29" customWidth="1"/>
+    <col min="22" max="22" width="31" customWidth="1"/>
+    <col min="23" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -750,8 +816,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,8 +842,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -782,8 +868,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -796,8 +892,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -812,8 +918,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -828,8 +944,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -842,8 +968,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -878,44 +1014,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -928,10 +1124,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -944,118 +1150,218 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>165090</v>
+      </c>
+      <c r="E12" s="15">
+        <v>99935</v>
+      </c>
+      <c r="F12" s="15">
+        <v>270675</v>
+      </c>
+      <c r="G12" s="15">
+        <v>163354</v>
+      </c>
+      <c r="H12" s="15">
+        <v>51064</v>
+      </c>
+      <c r="I12" s="15">
+        <v>166108</v>
+      </c>
+      <c r="J12" s="15">
+        <v>460983</v>
+      </c>
+      <c r="K12" s="15">
+        <v>467994</v>
+      </c>
+      <c r="L12" s="15">
         <v>866371</v>
       </c>
-      <c r="E12" s="15">
+      <c r="M12" s="15">
         <v>734983</v>
       </c>
-      <c r="F12" s="15">
+      <c r="N12" s="15">
         <v>776148</v>
       </c>
-      <c r="G12" s="15">
+      <c r="O12" s="15">
         <v>42853</v>
       </c>
-      <c r="H12" s="15">
+      <c r="P12" s="15">
         <v>752720</v>
       </c>
-      <c r="I12" s="15">
+      <c r="Q12" s="15">
         <v>621660</v>
       </c>
-      <c r="J12" s="15">
+      <c r="R12" s="15">
         <v>550317</v>
       </c>
-      <c r="K12" s="15">
+      <c r="S12" s="15">
         <v>-101277</v>
       </c>
-      <c r="L12" s="15">
+      <c r="T12" s="15">
         <v>683970</v>
       </c>
-      <c r="M12" s="15">
+      <c r="U12" s="15">
         <v>338605</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="15">
+        <v>1938768</v>
+      </c>
+      <c r="W12" s="15">
+        <v>1422702</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-13676</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-7998</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-8404</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-2125</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-3004</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>-7710</v>
+      </c>
+      <c r="L13" s="11">
         <v>-53740</v>
       </c>
-      <c r="E13" s="11">
+      <c r="M13" s="11">
         <v>-57000</v>
       </c>
-      <c r="F13" s="11">
+      <c r="N13" s="11">
         <v>-57000</v>
       </c>
-      <c r="G13" s="11">
+      <c r="O13" s="11">
         <v>-57000</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>-133842</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>-125457</v>
       </c>
-      <c r="J13" s="11">
+      <c r="R13" s="11">
         <v>-139576</v>
       </c>
-      <c r="K13" s="11">
+      <c r="S13" s="11">
         <v>-67500</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>-22500</v>
       </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <v>-601</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-35000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>151414</v>
+      </c>
+      <c r="E14" s="17">
+        <v>91937</v>
+      </c>
+      <c r="F14" s="17">
+        <v>262271</v>
+      </c>
+      <c r="G14" s="17">
+        <v>161229</v>
+      </c>
+      <c r="H14" s="17">
+        <v>48060</v>
+      </c>
+      <c r="I14" s="17">
+        <v>166108</v>
+      </c>
+      <c r="J14" s="17">
+        <v>455854</v>
+      </c>
+      <c r="K14" s="17">
+        <v>460284</v>
+      </c>
+      <c r="L14" s="17">
         <v>812631</v>
       </c>
-      <c r="E14" s="17">
+      <c r="M14" s="17">
         <v>677983</v>
       </c>
-      <c r="F14" s="17">
+      <c r="N14" s="17">
         <v>719148</v>
       </c>
-      <c r="G14" s="17">
+      <c r="O14" s="17">
         <v>-14147</v>
       </c>
-      <c r="H14" s="17">
+      <c r="P14" s="17">
         <v>618878</v>
       </c>
-      <c r="I14" s="17">
+      <c r="Q14" s="17">
         <v>496203</v>
       </c>
-      <c r="J14" s="17">
+      <c r="R14" s="17">
         <v>410741</v>
       </c>
-      <c r="K14" s="17">
+      <c r="S14" s="17">
         <v>-168777</v>
       </c>
-      <c r="L14" s="17">
+      <c r="T14" s="17">
         <v>661470</v>
       </c>
-      <c r="M14" s="17">
+      <c r="U14" s="17">
         <v>338605</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="17">
+        <v>1938167</v>
+      </c>
+      <c r="W14" s="17">
+        <v>1387702</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1068,118 +1374,218 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>0</v>
+        <v>-9011</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
       </c>
       <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>515</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15">
         <v>1389</v>
       </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <v>0</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
         <v>1675040</v>
       </c>
-      <c r="M16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>-6286</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-65784</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-144936</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-87521</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-74192</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-112658</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-191481</v>
+      </c>
+      <c r="K17" s="11">
+        <v>-106195</v>
+      </c>
+      <c r="L17" s="11">
         <v>-526432</v>
       </c>
-      <c r="E17" s="11">
+      <c r="M17" s="11">
         <v>-408492</v>
       </c>
-      <c r="F17" s="11">
+      <c r="N17" s="11">
         <v>-1447556</v>
       </c>
-      <c r="G17" s="11">
+      <c r="O17" s="11">
         <v>-115013</v>
       </c>
-      <c r="H17" s="11">
+      <c r="P17" s="11">
         <v>-538057</v>
       </c>
-      <c r="I17" s="11">
+      <c r="Q17" s="11">
         <v>-359507</v>
       </c>
-      <c r="J17" s="11">
+      <c r="R17" s="11">
         <v>238862</v>
       </c>
-      <c r="K17" s="11">
+      <c r="S17" s="11">
         <v>-129762</v>
       </c>
-      <c r="L17" s="11">
+      <c r="T17" s="11">
         <v>-239691</v>
       </c>
-      <c r="M17" s="11">
+      <c r="U17" s="11">
         <v>-39127</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V17" s="11">
+        <v>-177297</v>
+      </c>
+      <c r="W17" s="11">
+        <v>-185573</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
+        <v>66000</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
         <v>35000</v>
       </c>
-      <c r="E18" s="15">
+      <c r="M18" s="15">
         <v>35000</v>
       </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1212,82 +1618,172 @@
       <c r="M19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
         <v>-6354</v>
       </c>
-      <c r="E20" s="15">
+      <c r="M20" s="15">
         <v>-17349</v>
       </c>
-      <c r="F20" s="15">
+      <c r="N20" s="15">
         <v>-2341</v>
       </c>
-      <c r="G20" s="15">
+      <c r="O20" s="15">
         <v>-1613</v>
       </c>
-      <c r="H20" s="15">
+      <c r="P20" s="15">
         <v>-53107</v>
       </c>
-      <c r="I20" s="15">
+      <c r="Q20" s="15">
         <v>-846</v>
       </c>
-      <c r="J20" s="15">
+      <c r="R20" s="15">
         <v>-224</v>
       </c>
-      <c r="K20" s="15">
+      <c r="S20" s="15">
         <v>-380</v>
       </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
+        <v>-400</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
+        <v>-6000</v>
+      </c>
+      <c r="E21" s="11">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>-8850</v>
+      </c>
+      <c r="I21" s="11">
+        <v>7350</v>
+      </c>
+      <c r="J21" s="11">
+        <v>-700</v>
+      </c>
+      <c r="K21" s="11">
+        <v>-1000</v>
+      </c>
+      <c r="L21" s="11">
         <v>-27935</v>
       </c>
-      <c r="E21" s="11">
+      <c r="M21" s="11">
         <v>-21545</v>
       </c>
-      <c r="F21" s="11">
+      <c r="N21" s="11">
         <v>-27216</v>
       </c>
-      <c r="G21" s="11">
+      <c r="O21" s="11">
         <v>-33932</v>
       </c>
-      <c r="H21" s="11">
+      <c r="P21" s="11">
         <v>-68441</v>
       </c>
-      <c r="I21" s="11">
+      <c r="Q21" s="11">
         <v>-15054</v>
       </c>
-      <c r="J21" s="11">
+      <c r="R21" s="11">
         <v>-21061</v>
       </c>
-      <c r="K21" s="11">
+      <c r="S21" s="11">
         <v>-6650</v>
       </c>
-      <c r="L21" s="11">
+      <c r="T21" s="11">
         <v>-26318</v>
       </c>
-      <c r="M21" s="11">
+      <c r="U21" s="11">
         <v>-4598</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V21" s="11">
+        <v>-7156</v>
+      </c>
+      <c r="W21" s="11">
+        <v>-56000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1320,14 +1816,44 @@
       <c r="M22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>0</v>
+        <v>-56989</v>
       </c>
       <c r="E23" s="11">
         <v>0</v>
@@ -1356,118 +1882,238 @@
       <c r="M23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
+        <v>0</v>
+      </c>
+      <c r="V23" s="11">
+        <v>0</v>
+      </c>
+      <c r="W23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>-254</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-19589</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
+        <v>-38251</v>
+      </c>
+      <c r="J24" s="15">
+        <v>-15700</v>
+      </c>
+      <c r="K24" s="15">
+        <v>-386218</v>
+      </c>
+      <c r="L24" s="15">
         <v>-122650</v>
       </c>
-      <c r="E24" s="15">
+      <c r="M24" s="15">
         <v>-122775</v>
       </c>
-      <c r="F24" s="15">
+      <c r="N24" s="15">
         <v>-122614</v>
       </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="O24" s="15">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
         <v>-10000</v>
       </c>
-      <c r="I24" s="15">
+      <c r="Q24" s="15">
         <v>-30813</v>
       </c>
-      <c r="J24" s="15">
+      <c r="R24" s="15">
         <v>5</v>
       </c>
-      <c r="K24" s="15">
-        <v>0</v>
-      </c>
-      <c r="L24" s="15">
+      <c r="S24" s="15">
+        <v>0</v>
+      </c>
+      <c r="T24" s="15">
         <v>-15070</v>
       </c>
-      <c r="M24" s="15">
+      <c r="U24" s="15">
         <v>-46796</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V24" s="15">
+        <v>-31250</v>
+      </c>
+      <c r="W24" s="15">
+        <v>-8330</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>30852</v>
+      </c>
+      <c r="H25" s="11">
+        <v>67903</v>
+      </c>
+      <c r="I25" s="11">
+        <v>47406</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
         <v>30000</v>
       </c>
-      <c r="E25" s="11">
+      <c r="M25" s="11">
         <v>7398</v>
       </c>
-      <c r="F25" s="11">
+      <c r="N25" s="11">
         <v>58687</v>
       </c>
-      <c r="G25" s="11">
+      <c r="O25" s="11">
         <v>131518</v>
       </c>
-      <c r="H25" s="11">
+      <c r="P25" s="11">
         <v>82558</v>
       </c>
-      <c r="I25" s="11">
+      <c r="Q25" s="11">
         <v>111433</v>
       </c>
-      <c r="J25" s="11">
+      <c r="R25" s="11">
         <v>-1</v>
       </c>
-      <c r="K25" s="11">
+      <c r="S25" s="11">
         <v>54228</v>
       </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
         <v>199999</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V25" s="11">
+        <v>513602</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
+        <v>42462</v>
+      </c>
+      <c r="E26" s="15">
+        <v>-158622</v>
+      </c>
+      <c r="F26" s="15">
+        <v>-17939</v>
+      </c>
+      <c r="G26" s="15">
+        <v>-11466</v>
+      </c>
+      <c r="H26" s="15">
+        <v>-50278</v>
+      </c>
+      <c r="I26" s="15">
+        <v>2168</v>
+      </c>
+      <c r="J26" s="15">
+        <v>-255276</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
         <v>-58850</v>
       </c>
-      <c r="E26" s="15">
+      <c r="M26" s="15">
         <v>-243555</v>
       </c>
-      <c r="F26" s="15">
+      <c r="N26" s="15">
         <v>3594</v>
       </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
+      <c r="O26" s="15">
+        <v>0</v>
+      </c>
+      <c r="P26" s="15">
         <v>-72716</v>
       </c>
-      <c r="I26" s="15">
-        <v>0</v>
-      </c>
-      <c r="J26" s="15">
+      <c r="Q26" s="15">
+        <v>0</v>
+      </c>
+      <c r="R26" s="15">
         <v>72716</v>
       </c>
-      <c r="K26" s="15">
-        <v>0</v>
-      </c>
-      <c r="L26" s="15">
+      <c r="S26" s="15">
+        <v>0</v>
+      </c>
+      <c r="T26" s="15">
         <v>-692890</v>
       </c>
-      <c r="M26" s="15">
+      <c r="U26" s="15">
         <v>-191196</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V26" s="15">
+        <v>-115481</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1500,10 +2146,40 @@
       <c r="M27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1536,10 +2212,40 @@
       <c r="M28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1572,154 +2278,304 @@
       <c r="M29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0</v>
+      </c>
+      <c r="T29" s="11">
+        <v>0</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>1151</v>
+      </c>
+      <c r="G30" s="15">
+        <v>20</v>
+      </c>
+      <c r="H30" s="15">
+        <v>15</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>348</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
         <v>427</v>
       </c>
-      <c r="F30" s="15">
+      <c r="N30" s="15">
         <v>74</v>
       </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
+      <c r="O30" s="15">
+        <v>0</v>
+      </c>
+      <c r="P30" s="15">
         <v>6745</v>
       </c>
-      <c r="I30" s="15">
+      <c r="Q30" s="15">
         <v>42205</v>
       </c>
-      <c r="J30" s="15">
+      <c r="R30" s="15">
         <v>1970</v>
       </c>
-      <c r="K30" s="15">
+      <c r="S30" s="15">
         <v>11125</v>
       </c>
-      <c r="L30" s="15">
+      <c r="T30" s="15">
         <v>2176</v>
       </c>
-      <c r="M30" s="15">
+      <c r="U30" s="15">
         <v>36696</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V30" s="15">
+        <v>6669</v>
+      </c>
+      <c r="W30" s="15">
+        <v>20853</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>29528</v>
+      </c>
+      <c r="E31" s="11">
+        <v>7457</v>
+      </c>
+      <c r="F31" s="11">
+        <v>46714</v>
+      </c>
+      <c r="G31" s="11">
+        <v>7578</v>
+      </c>
+      <c r="H31" s="11">
+        <v>17609</v>
+      </c>
+      <c r="I31" s="11">
+        <v>16806</v>
+      </c>
+      <c r="J31" s="11">
+        <v>49546</v>
+      </c>
+      <c r="K31" s="11">
+        <v>15995</v>
+      </c>
+      <c r="L31" s="11">
         <v>74234</v>
       </c>
-      <c r="E31" s="11">
+      <c r="M31" s="11">
         <v>1041</v>
       </c>
-      <c r="F31" s="11">
+      <c r="N31" s="11">
         <v>22830</v>
       </c>
-      <c r="G31" s="11">
+      <c r="O31" s="11">
         <v>13239</v>
       </c>
-      <c r="H31" s="11">
+      <c r="P31" s="11">
         <v>72760</v>
       </c>
-      <c r="I31" s="11">
+      <c r="Q31" s="11">
         <v>-23596</v>
       </c>
-      <c r="J31" s="11">
+      <c r="R31" s="11">
         <v>73871</v>
       </c>
-      <c r="K31" s="11">
-        <v>0</v>
-      </c>
-      <c r="L31" s="11">
+      <c r="S31" s="11">
+        <v>0</v>
+      </c>
+      <c r="T31" s="11">
         <v>21490</v>
       </c>
-      <c r="M31" s="11">
+      <c r="U31" s="11">
         <v>33591</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V31" s="11">
+        <v>21035</v>
+      </c>
+      <c r="W31" s="11">
+        <v>14581</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>55204</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-217403</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-115010</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-80126</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-47792</v>
+      </c>
+      <c r="I32" s="17">
+        <v>-76664</v>
+      </c>
+      <c r="J32" s="17">
+        <v>-413611</v>
+      </c>
+      <c r="K32" s="17">
+        <v>-477070</v>
+      </c>
+      <c r="L32" s="17">
         <v>-602987</v>
       </c>
-      <c r="E32" s="17">
+      <c r="M32" s="17">
         <v>-769850</v>
       </c>
-      <c r="F32" s="17">
+      <c r="N32" s="17">
         <v>-1513153</v>
       </c>
-      <c r="G32" s="17">
+      <c r="O32" s="17">
         <v>-5801</v>
       </c>
-      <c r="H32" s="17">
+      <c r="P32" s="17">
         <v>-580258</v>
       </c>
-      <c r="I32" s="17">
+      <c r="Q32" s="17">
         <v>-276178</v>
       </c>
-      <c r="J32" s="17">
+      <c r="R32" s="17">
         <v>366138</v>
       </c>
-      <c r="K32" s="17">
+      <c r="S32" s="17">
         <v>-71439</v>
       </c>
-      <c r="L32" s="17">
+      <c r="T32" s="17">
         <v>724737</v>
       </c>
-      <c r="M32" s="17">
+      <c r="U32" s="17">
         <v>-11431</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V32" s="17">
+        <v>209722</v>
+      </c>
+      <c r="W32" s="17">
+        <v>-214469</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>206618</v>
+      </c>
+      <c r="E33" s="19">
+        <v>-125466</v>
+      </c>
+      <c r="F33" s="19">
+        <v>147261</v>
+      </c>
+      <c r="G33" s="19">
+        <v>81103</v>
+      </c>
+      <c r="H33" s="19">
+        <v>268</v>
+      </c>
+      <c r="I33" s="19">
+        <v>89444</v>
+      </c>
+      <c r="J33" s="19">
+        <v>42243</v>
+      </c>
+      <c r="K33" s="19">
+        <v>-16786</v>
+      </c>
+      <c r="L33" s="19">
         <v>209644</v>
       </c>
-      <c r="E33" s="19">
+      <c r="M33" s="19">
         <v>-91867</v>
       </c>
-      <c r="F33" s="19">
+      <c r="N33" s="19">
         <v>-794005</v>
       </c>
-      <c r="G33" s="19">
+      <c r="O33" s="19">
         <v>-19948</v>
       </c>
-      <c r="H33" s="19">
+      <c r="P33" s="19">
         <v>38620</v>
       </c>
-      <c r="I33" s="19">
+      <c r="Q33" s="19">
         <v>220025</v>
       </c>
-      <c r="J33" s="19">
+      <c r="R33" s="19">
         <v>776879</v>
       </c>
-      <c r="K33" s="19">
+      <c r="S33" s="19">
         <v>-240216</v>
       </c>
-      <c r="L33" s="19">
+      <c r="T33" s="19">
         <v>1386207</v>
       </c>
-      <c r="M33" s="19">
+      <c r="U33" s="19">
         <v>327174</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V33" s="19">
+        <v>2147889</v>
+      </c>
+      <c r="W33" s="19">
+        <v>1173233</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1732,82 +2588,152 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
         <v>72</v>
       </c>
-      <c r="E35" s="15">
+      <c r="M35" s="15">
         <v>68342</v>
       </c>
-      <c r="F35" s="15">
+      <c r="N35" s="15">
         <v>29687</v>
       </c>
-      <c r="G35" s="15">
-        <v>0</v>
-      </c>
-      <c r="H35" s="15">
-        <v>0</v>
-      </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1840,10 +2766,40 @@
       <c r="M37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1876,118 +2832,238 @@
       <c r="M38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
         <v>0</v>
       </c>
       <c r="E39" s="15">
+        <v>23158</v>
+      </c>
+      <c r="F39" s="15">
+        <v>842</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15">
+        <v>50000</v>
+      </c>
+      <c r="J39" s="15">
+        <v>50000</v>
+      </c>
+      <c r="K39" s="15">
+        <v>49871</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
         <v>106000</v>
       </c>
-      <c r="F39" s="15">
+      <c r="N39" s="15">
         <v>1211426</v>
       </c>
-      <c r="G39" s="15">
+      <c r="O39" s="15">
         <v>253000</v>
       </c>
-      <c r="H39" s="15">
+      <c r="P39" s="15">
         <v>180051</v>
       </c>
-      <c r="I39" s="15">
+      <c r="Q39" s="15">
         <v>197000</v>
       </c>
-      <c r="J39" s="15">
-        <v>0</v>
-      </c>
-      <c r="K39" s="15">
+      <c r="R39" s="15">
+        <v>0</v>
+      </c>
+      <c r="S39" s="15">
         <v>368000</v>
       </c>
-      <c r="L39" s="15">
+      <c r="T39" s="15">
         <v>195000</v>
       </c>
-      <c r="M39" s="15">
+      <c r="U39" s="15">
         <v>429142</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V39" s="15">
+        <v>0</v>
+      </c>
+      <c r="W39" s="15">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>-36238</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-14139</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-10721</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-15463</v>
+      </c>
+      <c r="K40" s="11">
+        <v>-34388</v>
+      </c>
+      <c r="L40" s="11">
         <v>-60942</v>
       </c>
-      <c r="E40" s="11">
+      <c r="M40" s="11">
         <v>-56342</v>
       </c>
-      <c r="F40" s="11">
+      <c r="N40" s="11">
         <v>-46461</v>
       </c>
-      <c r="G40" s="11">
+      <c r="O40" s="11">
         <v>-128170</v>
       </c>
-      <c r="H40" s="11">
+      <c r="P40" s="11">
         <v>-140558</v>
       </c>
-      <c r="I40" s="11">
+      <c r="Q40" s="11">
         <v>-215668</v>
       </c>
-      <c r="J40" s="11">
+      <c r="R40" s="11">
         <v>-252356</v>
       </c>
-      <c r="K40" s="11">
+      <c r="S40" s="11">
         <v>-220542</v>
       </c>
-      <c r="L40" s="11">
+      <c r="T40" s="11">
         <v>-887658</v>
       </c>
-      <c r="M40" s="11">
+      <c r="U40" s="11">
         <v>-322038</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V40" s="11">
+        <v>-1339739</v>
+      </c>
+      <c r="W40" s="11">
+        <v>-970905</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-2885</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-213</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-47</v>
+      </c>
+      <c r="H41" s="15">
+        <v>0</v>
+      </c>
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <v>-2826</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-6055</v>
+      </c>
+      <c r="L41" s="15">
         <v>-2319</v>
       </c>
-      <c r="E41" s="15">
+      <c r="M41" s="15">
         <v>-3123</v>
       </c>
-      <c r="F41" s="15">
+      <c r="N41" s="15">
         <v>-3581</v>
       </c>
-      <c r="G41" s="15">
+      <c r="O41" s="15">
         <v>-55985</v>
       </c>
-      <c r="H41" s="15">
+      <c r="P41" s="15">
         <v>-56512</v>
       </c>
-      <c r="I41" s="15">
+      <c r="Q41" s="15">
         <v>-57823</v>
       </c>
-      <c r="J41" s="15">
+      <c r="R41" s="15">
         <v>-69864</v>
       </c>
-      <c r="K41" s="15">
+      <c r="S41" s="15">
         <v>-55713</v>
       </c>
-      <c r="L41" s="15">
+      <c r="T41" s="15">
         <v>-249349</v>
       </c>
-      <c r="M41" s="15">
+      <c r="U41" s="15">
         <v>-154923</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V41" s="15">
+        <v>-384107</v>
+      </c>
+      <c r="W41" s="15">
+        <v>-55956</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -2020,10 +3096,40 @@
       <c r="M42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <v>0</v>
+      </c>
+      <c r="V42" s="11">
+        <v>0</v>
+      </c>
+      <c r="W42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -2056,10 +3162,40 @@
       <c r="M43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15">
+        <v>0</v>
+      </c>
+      <c r="P43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0</v>
+      </c>
+      <c r="R43" s="15">
+        <v>0</v>
+      </c>
+      <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -2092,10 +3228,40 @@
       <c r="M44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>0</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11">
+        <v>0</v>
+      </c>
+      <c r="W44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2128,10 +3294,40 @@
       <c r="M45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>0</v>
+      </c>
+      <c r="R45" s="15">
+        <v>0</v>
+      </c>
+      <c r="S45" s="15">
+        <v>0</v>
+      </c>
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2164,10 +3360,40 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2200,10 +3426,40 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2236,10 +3492,40 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2272,260 +3558,500 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-19736</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-32967</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-54819</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-25732</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-82116</v>
+      </c>
+      <c r="I50" s="11">
+        <v>-112798</v>
+      </c>
+      <c r="J50" s="11">
+        <v>-41265</v>
+      </c>
+      <c r="K50" s="11">
+        <v>-25699</v>
+      </c>
+      <c r="L50" s="11">
         <v>-13852</v>
       </c>
-      <c r="E50" s="11">
+      <c r="M50" s="11">
         <v>-8987</v>
       </c>
-      <c r="F50" s="11">
+      <c r="N50" s="11">
         <v>-296774</v>
       </c>
-      <c r="G50" s="11">
+      <c r="O50" s="11">
         <v>-50456</v>
       </c>
-      <c r="H50" s="11">
+      <c r="P50" s="11">
         <v>-59789</v>
       </c>
-      <c r="I50" s="11">
+      <c r="Q50" s="11">
         <v>-177715</v>
       </c>
-      <c r="J50" s="11">
+      <c r="R50" s="11">
         <v>-384558</v>
       </c>
-      <c r="K50" s="11">
+      <c r="S50" s="11">
         <v>-47549</v>
       </c>
-      <c r="L50" s="11">
+      <c r="T50" s="11">
         <v>-119430</v>
       </c>
-      <c r="M50" s="11">
+      <c r="U50" s="11">
         <v>-277698</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V50" s="11">
+        <v>-567380</v>
+      </c>
+      <c r="W50" s="11">
+        <v>-126017</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>-58859</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-10022</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-68117</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-36500</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-82116</v>
+      </c>
+      <c r="I51" s="17">
+        <v>-62798</v>
+      </c>
+      <c r="J51" s="17">
+        <v>-271465</v>
+      </c>
+      <c r="K51" s="17">
+        <v>-16271</v>
+      </c>
+      <c r="L51" s="17">
         <v>-77041</v>
       </c>
-      <c r="E51" s="17">
+      <c r="M51" s="17">
         <v>105890</v>
       </c>
-      <c r="F51" s="17">
+      <c r="N51" s="17">
         <v>894297</v>
       </c>
-      <c r="G51" s="17">
+      <c r="O51" s="17">
         <v>18389</v>
       </c>
-      <c r="H51" s="17">
+      <c r="P51" s="17">
         <v>-76808</v>
       </c>
-      <c r="I51" s="17">
+      <c r="Q51" s="17">
         <v>-254206</v>
       </c>
-      <c r="J51" s="17">
+      <c r="R51" s="17">
         <v>-706778</v>
       </c>
-      <c r="K51" s="17">
+      <c r="S51" s="17">
         <v>44196</v>
       </c>
-      <c r="L51" s="17">
+      <c r="T51" s="17">
         <v>-1061437</v>
       </c>
-      <c r="M51" s="17">
+      <c r="U51" s="17">
         <v>-325517</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V51" s="17">
+        <v>-2291226</v>
+      </c>
+      <c r="W51" s="17">
+        <v>-902878</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>147759</v>
+      </c>
+      <c r="E52" s="19">
+        <v>-135488</v>
+      </c>
+      <c r="F52" s="19">
+        <v>79144</v>
+      </c>
+      <c r="G52" s="19">
+        <v>44603</v>
+      </c>
+      <c r="H52" s="19">
+        <v>-81848</v>
+      </c>
+      <c r="I52" s="19">
+        <v>26646</v>
+      </c>
+      <c r="J52" s="19">
+        <v>37818</v>
+      </c>
+      <c r="K52" s="19">
+        <v>-33057</v>
+      </c>
+      <c r="L52" s="19">
         <v>132603</v>
       </c>
-      <c r="E52" s="19">
+      <c r="M52" s="19">
         <v>14023</v>
       </c>
-      <c r="F52" s="19">
+      <c r="N52" s="19">
         <v>100292</v>
       </c>
-      <c r="G52" s="19">
+      <c r="O52" s="19">
         <v>-1559</v>
       </c>
-      <c r="H52" s="19">
+      <c r="P52" s="19">
         <v>-38188</v>
       </c>
-      <c r="I52" s="19">
+      <c r="Q52" s="19">
         <v>-34181</v>
       </c>
-      <c r="J52" s="19">
+      <c r="R52" s="19">
         <v>70101</v>
       </c>
-      <c r="K52" s="19">
+      <c r="S52" s="19">
         <v>-196020</v>
       </c>
-      <c r="L52" s="19">
+      <c r="T52" s="19">
         <v>324770</v>
       </c>
-      <c r="M52" s="19">
+      <c r="U52" s="19">
         <v>1657</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V52" s="19">
+        <v>-143337</v>
+      </c>
+      <c r="W52" s="19">
+        <v>270355</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>225260</v>
+      </c>
+      <c r="E53" s="15">
+        <v>354667</v>
+      </c>
+      <c r="F53" s="15">
+        <v>223972</v>
+      </c>
+      <c r="G53" s="15">
+        <v>308794</v>
+      </c>
+      <c r="H53" s="15">
+        <v>353397</v>
+      </c>
+      <c r="I53" s="15">
+        <v>271549</v>
+      </c>
+      <c r="J53" s="15">
+        <v>298195</v>
+      </c>
+      <c r="K53" s="15">
+        <v>344064</v>
+      </c>
+      <c r="L53" s="15">
         <v>311007</v>
       </c>
-      <c r="E53" s="15">
+      <c r="M53" s="15">
         <v>529795</v>
       </c>
-      <c r="F53" s="15">
+      <c r="N53" s="15">
         <v>495541</v>
       </c>
-      <c r="G53" s="15">
+      <c r="O53" s="15">
         <v>591983</v>
       </c>
-      <c r="H53" s="15">
+      <c r="P53" s="15">
         <v>590424</v>
       </c>
-      <c r="I53" s="15">
+      <c r="Q53" s="15">
         <v>594854</v>
       </c>
-      <c r="J53" s="15">
+      <c r="R53" s="15">
         <v>554978</v>
       </c>
-      <c r="K53" s="15">
+      <c r="S53" s="15">
         <v>632808</v>
       </c>
-      <c r="L53" s="15">
+      <c r="T53" s="15">
         <v>436788</v>
       </c>
-      <c r="M53" s="15">
+      <c r="U53" s="15">
         <v>826886</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V53" s="15">
+        <v>763215</v>
+      </c>
+      <c r="W53" s="15">
+        <v>1073107</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
+        <v>-18352</v>
+      </c>
+      <c r="E54" s="11">
+        <v>4793</v>
+      </c>
+      <c r="F54" s="11">
+        <v>5678</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>8051</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
         <v>86185</v>
       </c>
-      <c r="E54" s="11">
+      <c r="M54" s="11">
         <v>-48277</v>
       </c>
-      <c r="F54" s="11">
+      <c r="N54" s="11">
         <v>-3850</v>
       </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
+      <c r="O54" s="11">
+        <v>0</v>
+      </c>
+      <c r="P54" s="11">
         <v>42618</v>
       </c>
-      <c r="I54" s="11">
+      <c r="Q54" s="11">
         <v>-5695</v>
       </c>
-      <c r="J54" s="11">
+      <c r="R54" s="11">
         <v>7729</v>
       </c>
-      <c r="K54" s="11">
-        <v>0</v>
-      </c>
-      <c r="L54" s="11">
+      <c r="S54" s="11">
+        <v>0</v>
+      </c>
+      <c r="T54" s="11">
         <v>65328</v>
       </c>
-      <c r="M54" s="11">
+      <c r="U54" s="11">
         <v>-65328</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V54" s="11">
+        <v>453229</v>
+      </c>
+      <c r="W54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>354667</v>
+      </c>
+      <c r="E55" s="17">
+        <v>223972</v>
+      </c>
+      <c r="F55" s="17">
+        <v>308794</v>
+      </c>
+      <c r="G55" s="17">
+        <v>353397</v>
+      </c>
+      <c r="H55" s="17">
+        <v>271549</v>
+      </c>
+      <c r="I55" s="17">
+        <v>298195</v>
+      </c>
+      <c r="J55" s="17">
+        <v>344064</v>
+      </c>
+      <c r="K55" s="17">
+        <v>311007</v>
+      </c>
+      <c r="L55" s="17">
         <v>529795</v>
       </c>
-      <c r="E55" s="17">
+      <c r="M55" s="17">
         <v>495541</v>
       </c>
-      <c r="F55" s="17">
+      <c r="N55" s="17">
         <v>591983</v>
       </c>
-      <c r="G55" s="17">
+      <c r="O55" s="17">
         <v>590424</v>
       </c>
-      <c r="H55" s="17">
+      <c r="P55" s="17">
         <v>594854</v>
       </c>
-      <c r="I55" s="17">
+      <c r="Q55" s="17">
         <v>554978</v>
       </c>
-      <c r="J55" s="17">
+      <c r="R55" s="17">
         <v>632808</v>
       </c>
-      <c r="K55" s="17">
+      <c r="S55" s="17">
         <v>436788</v>
       </c>
-      <c r="L55" s="17">
+      <c r="T55" s="17">
         <v>826886</v>
       </c>
-      <c r="M55" s="17">
+      <c r="U55" s="17">
         <v>763215</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V55" s="17">
+        <v>1073107</v>
+      </c>
+      <c r="W55" s="17">
+        <v>1343462</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>707058</v>
+      </c>
+      <c r="E56" s="11">
+        <v>-707058</v>
+      </c>
+      <c r="F56" s="11">
+        <v>2760218</v>
+      </c>
+      <c r="G56" s="11">
+        <v>609569</v>
+      </c>
+      <c r="H56" s="11">
+        <v>562524</v>
+      </c>
+      <c r="I56" s="11">
+        <v>295675</v>
+      </c>
+      <c r="J56" s="11">
+        <v>1922876</v>
+      </c>
+      <c r="K56" s="11">
+        <v>205134</v>
+      </c>
+      <c r="L56" s="11">
         <v>-129042</v>
       </c>
-      <c r="E56" s="11">
-        <v>0</v>
-      </c>
-      <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <v>0</v>
-      </c>
-      <c r="J56" s="11">
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+      <c r="N56" s="11">
+        <v>0</v>
+      </c>
+      <c r="O56" s="11">
+        <v>0</v>
+      </c>
+      <c r="P56" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>0</v>
+      </c>
+      <c r="R56" s="11">
         <v>746750</v>
       </c>
-      <c r="K56" s="11">
-        <v>0</v>
-      </c>
-      <c r="L56" s="11">
+      <c r="S56" s="11">
+        <v>0</v>
+      </c>
+      <c r="T56" s="11">
         <v>496097</v>
       </c>
-      <c r="M56" s="11">
+      <c r="U56" s="11">
         <v>-449696</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V56" s="11">
+        <v>-46401</v>
+      </c>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2538,6 +4064,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
